--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/esxipxe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/esxihttp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF92CB31-352E-604B-A2E2-5420959A6884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBC788-9181-E54F-8513-FFBB5101A749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Hosts" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>fqdn</t>
   </si>
@@ -59,9 +59,6 @@
     <t>vlan</t>
   </si>
   <si>
-    <t>GUID</t>
-  </si>
-  <si>
     <t>domain</t>
   </si>
   <si>
@@ -170,10 +167,16 @@
     <t>01-84-7b-eb-ff-be-33</t>
   </si>
   <si>
-    <t>nuke b8:ae:ed:72:04:82</t>
-  </si>
-  <si>
     <t>10.0.0.20</t>
+  </si>
+  <si>
+    <t>iDRAC</t>
+  </si>
+  <si>
+    <t>ESXi-7.0U1d-17551050-standard-Dell</t>
+  </si>
+  <si>
+    <t>ESXi image</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -242,6 +264,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B9AA525-DFBC-3A4C-981B-A830CCEA4F29}" name="Hosts" displayName="Hosts" ref="A2:Q7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:Q7" xr:uid="{C99375A7-7799-1649-87CF-4CA0AC6461B9}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{B0956144-C53D-694B-AB9E-A4F29158AF7F}" name="fqdn"/>
+    <tableColumn id="2" xr3:uid="{F9DF3A82-4FC7-BE4A-924B-BA14CDC09BCE}" name="nic"/>
+    <tableColumn id="3" xr3:uid="{EF6FF2A6-9B32-7D43-AA2A-86E3A91E34D9}" name="ip"/>
+    <tableColumn id="4" xr3:uid="{45769D14-46A5-A042-91D4-1242BB8E0470}" name="netmask"/>
+    <tableColumn id="5" xr3:uid="{899FDD3A-A436-0E4E-8AE7-247F79455847}" name="gateway"/>
+    <tableColumn id="6" xr3:uid="{A210749C-C239-1C43-96CF-3172A67AE292}" name="dns"/>
+    <tableColumn id="7" xr3:uid="{0C30451D-D086-9040-8182-4AA60DC9E0F5}" name="vlan"/>
+    <tableColumn id="8" xr3:uid="{48D15A6C-F240-ED4A-8899-DD9FC976EA47}" name="iDRAC"/>
+    <tableColumn id="9" xr3:uid="{822365D6-E478-3A43-910B-9A904F3AD601}" name="Disk selection"/>
+    <tableColumn id="10" xr3:uid="{9DFDC55C-94B9-E444-A48A-8E3FEBB1A624}" name="vSAN capacitydisk(s)"/>
+    <tableColumn id="11" xr3:uid="{450128CA-BCC2-3546-A25E-7FE95058E4DE}" name="ntp(s)"/>
+    <tableColumn id="12" xr3:uid="{474098CC-8547-9643-B60E-25CDCE4ECC4E}" name="domain"/>
+    <tableColumn id="13" xr3:uid="{E3E9CB7D-ABD6-534F-B334-AAF0C671B5B9}" name="password"/>
+    <tableColumn id="14" xr3:uid="{D07AF923-BB9E-8347-A495-7901FBDA92BD}" name="CEIP participation (0=ask, 1=yes, 2=no)"/>
+    <tableColumn id="15" xr3:uid="{07DCFB54-26B9-D14C-BB95-8D2AC80779F5}" name="Transparent page sharing"/>
+    <tableColumn id="16" xr3:uid="{BFBF5224-12BC-0247-B7F2-85BA64844219}" name="create vSAN"/>
+    <tableColumn id="17" xr3:uid="{A60F845B-AA64-274E-96D9-C95FB375306C}" name="ESXi image"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -541,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498C0852-A23D-4AC6-A0A2-2AEDE18809CF}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -553,31 +601,30 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" customWidth="1"/>
     <col min="8" max="8" width="34.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
+    <col min="15" max="15" width="22.5" customWidth="1"/>
+    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="17" max="17" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -600,291 +647,327 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="P2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1110</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>1110</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="M4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>1110</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
+      <c r="M5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>1110</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="M6" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
       </c>
       <c r="G7">
         <v>1110</v>
       </c>
       <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CF220DD1F5C4CE4F84F64F5AF49DB9EE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="90c04ed21cc6d9d0a8062b658f6da360">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="06fc048b-0742-4b12-8c99-f64ada4dab12" xmlns:ns4="420b1caf-0da6-4c93-b8f0-e54cf6b84b95" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ec74fa404bf27344389f2ff6b5a9ef4" ns3:_="" ns4:_="">
     <xsd:import namespace="06fc048b-0742-4b12-8c99-f64ada4dab12"/>
@@ -1093,22 +1176,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D24959D-2EAF-4BA9-B124-B146F8BCEB26}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="420b1caf-0da6-4c93-b8f0-e54cf6b84b95"/>
+    <ds:schemaRef ds:uri="06fc048b-0742-4b12-8c99-f64ada4dab12"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AAB25B-241E-441A-B096-A4CB95D95135}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC0DF7C-3E35-427F-BB75-4E24E9EBF82C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1125,29 +1218,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47AAB25B-241E-441A-B096-A4CB95D95135}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D24959D-2EAF-4BA9-B124-B146F8BCEB26}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="420b1caf-0da6-4c93-b8f0-e54cf6b84b95"/>
-    <ds:schemaRef ds:uri="06fc048b-0742-4b12-8c99-f64ada4dab12"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/esxihttp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16EBC788-9181-E54F-8513-FFBB5101A749}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E563FEF-3A13-C749-A65F-4AC05CF2E33D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>fqdn</t>
   </si>
@@ -592,7 +592,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -757,9 +757,6 @@
       </c>
       <c r="I4" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>

--- a/esxi-hosts.xlsx
+++ b/esxi-hosts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautaonn/GIT/esxihttp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E563FEF-3A13-C749-A65F-4AC05CF2E33D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5375D629-F318-2245-8787-1E633BCDC02D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{FD2C5535-F74D-41F4-BDAC-39876CDCBDB5}"/>
   </bookViews>
@@ -167,9 +167,6 @@
     <t>01-84-7b-eb-ff-be-33</t>
   </si>
   <si>
-    <t>10.0.0.20</t>
-  </si>
-  <si>
     <t>iDRAC</t>
   </si>
   <si>
@@ -177,13 +174,16 @@
   </si>
   <si>
     <t>ESXi image</t>
+  </si>
+  <si>
+    <t>http://10.0.0.20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +201,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -223,15 +231,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -592,7 +603,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -620,8 +631,8 @@
       <c r="A1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>43</v>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -647,7 +658,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>12</v>
@@ -674,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -727,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="Q3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -777,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -830,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="Q5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -883,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="Q6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -936,15 +947,18 @@
         <v>15</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{416702FB-5DB7-C847-95FB-F3E2BF7C9E0E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
